--- a/biology/Zoologie/Badidae/Badidae.xlsx
+++ b/biology/Zoologie/Badidae/Badidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Badidae sont une famille de poissons d'eau douce, elle se compose de deux genres, ainsi que de 30 espèces. Ces poissons vivent exclusivement sur le continent asiatique.
 Cette famille n'est pas reconnue par ITIS qui place les genres Badis et Dario sous Perciformes → Percoidei → Nandidae.
@@ -512,7 +524,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Selon FishBase :
 genre Dario
